--- a/data/outputs/management_altmetric/71.xlsx
+++ b/data/outputs/management_altmetric/71.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE62"/>
+  <dimension ref="A1:CF62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -782,6 +782,11 @@
           <t>citeulike</t>
         </is>
       </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1025,6 +1030,9 @@
       <c r="CE2" t="n">
         <v>0</v>
       </c>
+      <c r="CF2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1272,6 +1280,9 @@
       <c r="CE3" t="n">
         <v>0</v>
       </c>
+      <c r="CF3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1525,6 +1536,9 @@
         <v>0</v>
       </c>
       <c r="CE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1762,6 +1776,9 @@
       <c r="CE5" t="n">
         <v>0</v>
       </c>
+      <c r="CF5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2009,6 +2026,9 @@
       <c r="CE6" t="n">
         <v>0</v>
       </c>
+      <c r="CF6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2248,6 +2268,9 @@
       <c r="CE7" t="n">
         <v>0</v>
       </c>
+      <c r="CF7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2501,6 +2524,9 @@
         <v>0</v>
       </c>
       <c r="CE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2760,6 +2786,9 @@
       <c r="CE9" t="n">
         <v>0</v>
       </c>
+      <c r="CF9" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3011,6 +3040,9 @@
       <c r="CE10" t="n">
         <v>0</v>
       </c>
+      <c r="CF10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3262,6 +3294,9 @@
       <c r="CE11" t="n">
         <v>0</v>
       </c>
+      <c r="CF11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3505,6 +3540,9 @@
       <c r="CE12" t="n">
         <v>0</v>
       </c>
+      <c r="CF12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3752,6 +3790,9 @@
       <c r="CE13" t="n">
         <v>0</v>
       </c>
+      <c r="CF13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4007,6 +4048,9 @@
       <c r="CE14" t="n">
         <v>0</v>
       </c>
+      <c r="CF14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4262,6 +4306,9 @@
       <c r="CE15" t="n">
         <v>0</v>
       </c>
+      <c r="CF15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4517,6 +4564,9 @@
       <c r="CE16" t="n">
         <v>0</v>
       </c>
+      <c r="CF16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4764,6 +4814,9 @@
       <c r="CE17" t="n">
         <v>0</v>
       </c>
+      <c r="CF17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5011,6 +5064,9 @@
       <c r="CE18" t="n">
         <v>0</v>
       </c>
+      <c r="CF18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5272,6 +5328,9 @@
       <c r="CE19" t="n">
         <v>0</v>
       </c>
+      <c r="CF19" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5511,6 +5570,9 @@
       <c r="CE20" t="n">
         <v>0</v>
       </c>
+      <c r="CF20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5766,6 +5828,9 @@
       <c r="CE21" t="n">
         <v>0</v>
       </c>
+      <c r="CF21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -6021,6 +6086,9 @@
       <c r="CE22" t="n">
         <v>0</v>
       </c>
+      <c r="CF22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6268,6 +6336,9 @@
       <c r="CE23" t="n">
         <v>0</v>
       </c>
+      <c r="CF23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6515,6 +6586,9 @@
       <c r="CE24" t="n">
         <v>0</v>
       </c>
+      <c r="CF24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6754,6 +6828,9 @@
       <c r="CE25" t="n">
         <v>0</v>
       </c>
+      <c r="CF25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -7001,6 +7078,9 @@
       <c r="CE26" t="n">
         <v>0</v>
       </c>
+      <c r="CF26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7248,6 +7328,9 @@
       <c r="CE27" t="n">
         <v>0</v>
       </c>
+      <c r="CF27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7499,6 +7582,9 @@
       <c r="CE28" t="n">
         <v>0</v>
       </c>
+      <c r="CF28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7746,6 +7832,9 @@
       <c r="CE29" t="n">
         <v>0</v>
       </c>
+      <c r="CF29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -7993,6 +8082,9 @@
       <c r="CE30" t="n">
         <v>0</v>
       </c>
+      <c r="CF30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -8240,6 +8332,9 @@
       <c r="CE31" t="n">
         <v>0</v>
       </c>
+      <c r="CF31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -8487,6 +8582,9 @@
       <c r="CE32" t="n">
         <v>0</v>
       </c>
+      <c r="CF32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -8732,6 +8830,9 @@
         <v>0</v>
       </c>
       <c r="CE33" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8973,6 +9074,9 @@
       <c r="CE34" t="n">
         <v>0</v>
       </c>
+      <c r="CF34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -9212,6 +9316,9 @@
       <c r="CE35" t="n">
         <v>0</v>
       </c>
+      <c r="CF35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -9467,6 +9574,9 @@
       <c r="CE36" t="n">
         <v>0</v>
       </c>
+      <c r="CF36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -9722,6 +9832,9 @@
       <c r="CE37" t="n">
         <v>0</v>
       </c>
+      <c r="CF37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -9969,6 +10082,9 @@
       <c r="CE38" t="n">
         <v>0</v>
       </c>
+      <c r="CF38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -10216,6 +10332,9 @@
       <c r="CE39" t="n">
         <v>0</v>
       </c>
+      <c r="CF39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -10461,6 +10580,9 @@
         <v>0</v>
       </c>
       <c r="CE40" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10710,6 +10832,9 @@
       <c r="CE41" t="n">
         <v>0</v>
       </c>
+      <c r="CF41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -10965,6 +11090,9 @@
       <c r="CE42" t="n">
         <v>0</v>
       </c>
+      <c r="CF42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -11216,6 +11344,9 @@
       <c r="CE43" t="n">
         <v>0</v>
       </c>
+      <c r="CF43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -11463,6 +11594,9 @@
       <c r="CE44" t="n">
         <v>0</v>
       </c>
+      <c r="CF44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -11710,6 +11844,9 @@
       <c r="CE45" t="n">
         <v>0</v>
       </c>
+      <c r="CF45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -11949,6 +12086,9 @@
       <c r="CE46" t="n">
         <v>0</v>
       </c>
+      <c r="CF46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -12192,6 +12332,9 @@
       <c r="CE47" t="n">
         <v>0</v>
       </c>
+      <c r="CF47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -12447,6 +12590,9 @@
       <c r="CE48" t="n">
         <v>0</v>
       </c>
+      <c r="CF48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -12694,6 +12840,9 @@
       <c r="CE49" t="n">
         <v>0</v>
       </c>
+      <c r="CF49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -12935,6 +13084,9 @@
       <c r="CE50" t="n">
         <v>0</v>
       </c>
+      <c r="CF50" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -13182,6 +13334,9 @@
       <c r="CE51" t="n">
         <v>0</v>
       </c>
+      <c r="CF51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -13431,6 +13586,9 @@
       <c r="CE52" t="n">
         <v>0</v>
       </c>
+      <c r="CF52" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -13678,6 +13836,9 @@
       <c r="CE53" t="n">
         <v>0</v>
       </c>
+      <c r="CF53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -13921,6 +14082,9 @@
       <c r="CE54" t="n">
         <v>0</v>
       </c>
+      <c r="CF54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -14160,6 +14324,9 @@
       <c r="CE55" t="n">
         <v>0</v>
       </c>
+      <c r="CF55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -14399,6 +14566,9 @@
       <c r="CE56" t="n">
         <v>0</v>
       </c>
+      <c r="CF56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -14646,6 +14816,9 @@
       <c r="CE57" t="n">
         <v>0</v>
       </c>
+      <c r="CF57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -14893,6 +15066,9 @@
       <c r="CE58" t="n">
         <v>0</v>
       </c>
+      <c r="CF58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -15146,6 +15322,9 @@
       <c r="CE59" t="n">
         <v>0</v>
       </c>
+      <c r="CF59" t="n">
+        <v>2.2</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -15389,6 +15568,9 @@
       <c r="CE60" t="n">
         <v>0</v>
       </c>
+      <c r="CF60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -15628,6 +15810,9 @@
       <c r="CE61" t="n">
         <v>0</v>
       </c>
+      <c r="CF61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -15871,6 +16056,9 @@
       <c r="CE62" t="n">
         <v>0</v>
       </c>
+      <c r="CF62" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
